--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xsf\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14274D1D-F3DF-4DEF-B51A-6373B1293CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D13744-874A-43A4-A158-C3FFAEC53CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -800,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>2</v>
+        <v>3.1415926000000001</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>27</v>

--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xsf\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D13744-874A-43A4-A158-C3FFAEC53CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C957F3-1895-42A2-9566-399A0928F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33450" yWindow="-1605" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>导出/server</t>
   </si>
@@ -180,6 +180,26 @@
   </si>
   <si>
     <t>id和count数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1415926</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,28 +299,26 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -582,20 +600,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="17.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5">
+    <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5">
+    <row r="2" spans="1:6" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -635,242 +655,229 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:6" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:6" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:6" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
-        <v>100</v>
-      </c>
-      <c r="D8" s="7">
-        <v>200</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7">
-        <f>C8+D8</f>
-        <v>300</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7">
-        <v>3.1415926000000001</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
-      <c r="A12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6">
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6">
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xsf\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C957F3-1895-42A2-9566-399A0928F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="-1605" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="20080"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>导出/server</t>
   </si>
@@ -43,11 +32,9 @@
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枚举定义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
@@ -59,10 +46,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -70,184 +53,228 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>enumDef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>This is a test data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:3:4:5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uintArrayData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>floatData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulongData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长整形数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uintData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint整形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>intData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有符号整形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号整形数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000:10|2000:20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iacData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id和count数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1415926</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>RowScore</t>
+  </si>
+  <si>
+    <t>一行消除的分数</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ScoreAddition</t>
+  </si>
+  <si>
+    <t>分数加成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ [$￥-804]* #,##0.000_ ;_ [$￥-804]* \-#,##0.000_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +289,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39841914120914335"/>
+        <fgColor theme="4" tint="0.398419141209143"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -277,61 +490,347 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1" xr:uid="{BD94DCB6-6713-41E2-8420-5E8763D7615B}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="常规 10" xfId="29"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,7 +879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -415,7 +914,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -589,74 +1088,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="17.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7946428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -675,8 +1169,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -686,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -695,189 +1189,69 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
-        <v>2</v>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7">
-        <v>8</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>导出/server</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>分数加成</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>MaxLifeCount</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
   </si>
 </sst>
 </file>
@@ -90,13 +99,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ [$￥-804]* #,##0.000_ ;_ [$￥-804]* \-#,##0.000_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +134,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,7 +248,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,118 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -295,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,31 +519,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +550,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -587,16 +580,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -604,148 +606,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1094,13 +1096,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
@@ -1249,6 +1251,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xsf\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C957F3-1895-42A2-9566-399A0928F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="-1605" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19720"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>导出/server</t>
   </si>
@@ -43,11 +32,9 @@
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枚举定义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
@@ -59,10 +46,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -70,184 +53,309 @@
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>enumDef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>intData</t>
+  </si>
+  <si>
+    <t>有符号整形</t>
+  </si>
+  <si>
+    <t>This is a test data</t>
+  </si>
+  <si>
+    <t>stringData</t>
+  </si>
+  <si>
+    <t>字符串数据</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>uintData</t>
+  </si>
+  <si>
+    <t>uint整形</t>
+  </si>
+  <si>
+    <t>ulong</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ulongData</t>
+  </si>
+  <si>
+    <t>长整形数据</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
-    <t>This is a test data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>3.1415926</t>
+  </si>
+  <si>
+    <t>floatData</t>
+  </si>
+  <si>
+    <t>浮点数</t>
   </si>
   <si>
     <t>array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2:3:4:5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uintArrayData</t>
+  </si>
+  <si>
+    <t>无符号整形数组</t>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>boolData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uintArrayData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>布尔数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>floatData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulongData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长整形数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uintData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint整形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>intData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有符号整形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无符号整形数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>iac</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10000:10|2000:20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>iacData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>id和count数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1415926</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>sarray</t>
+  </si>
+  <si>
+    <t>m_19:m_21:m_22:m_23:m_26:m_32:m_33</t>
+  </si>
+  <si>
+    <t>CharacterList</t>
+  </si>
+  <si>
+    <t>角色资源列表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ [$￥-804]* #,##0.000_ ;_ [$￥-804]* \-#,##0.000_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +370,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39841914120914335"/>
+        <fgColor theme="4" tint="0.398419141209143"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -277,61 +571,347 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1" xr:uid="{BD94DCB6-6713-41E2-8420-5E8763D7615B}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -380,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -415,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -589,74 +1169,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="17.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="51.6339285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -675,8 +1250,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -686,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -695,47 +1270,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -746,16 +1321,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -763,19 +1338,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -783,19 +1358,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -803,19 +1378,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -823,19 +1398,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5">
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
@@ -843,19 +1418,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
@@ -863,21 +1438,41 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="20080"/>
+    <workbookView windowHeight="19720"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -97,13 +97,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ [$￥-804]* #,##0.000_ ;_ [$￥-804]* \-#,##0.000_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -126,6 +126,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -133,6 +212,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -140,56 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,81 +275,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -297,181 +297,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,11 +506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,28 +539,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,192 +584,173 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,10 +763,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -779,55 +779,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="常规 10" xfId="29"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 10" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>

--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31220" windowHeight="21820"/>
+    <workbookView windowHeight="19720"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,150 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>导出/server</t>
   </si>
   <si>
+    <t>client</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>客户端</t>
-  </si>
-  <si>
-    <t>服务端</t>
+    <t>有符号整形</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>intData</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>字符串数据</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>intData</t>
-  </si>
-  <si>
-    <t>有符号整形</t>
+    <t>stringData</t>
   </si>
   <si>
     <t>This is a test data</t>
   </si>
   <si>
-    <t>stringData</t>
-  </si>
-  <si>
-    <t>字符串数据</t>
+    <t>uint整形</t>
   </si>
   <si>
     <t>uint</t>
   </si>
   <si>
+    <t>uintData</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
-    <t>uintData</t>
-  </si>
-  <si>
-    <t>uint整形</t>
+    <t>长整形数据</t>
   </si>
   <si>
     <t>ulong</t>
   </si>
   <si>
+    <t>ulongData</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>ulongData</t>
-  </si>
-  <si>
-    <t>长整形数据</t>
+    <t>浮点数</t>
   </si>
   <si>
     <t>float</t>
   </si>
   <si>
+    <t>floatData</t>
+  </si>
+  <si>
     <t>3.1415926</t>
   </si>
   <si>
-    <t>floatData</t>
-  </si>
-  <si>
-    <t>浮点数</t>
+    <t>无符号整形数组</t>
   </si>
   <si>
     <t>array</t>
   </si>
   <si>
+    <t>uintArrayData</t>
+  </si>
+  <si>
     <t>2:3:4:5</t>
   </si>
   <si>
-    <t>uintArrayData</t>
-  </si>
-  <si>
-    <t>无符号整形数组</t>
+    <t>布尔数据</t>
   </si>
   <si>
     <t>bool</t>
   </si>
   <si>
+    <t>boolData</t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>boolData</t>
-  </si>
-  <si>
-    <t>布尔数据</t>
+    <t>id和count数据</t>
   </si>
   <si>
     <t>iac</t>
   </si>
   <si>
+    <t>iacData</t>
+  </si>
+  <si>
     <t>10000:10|2000:20</t>
-  </si>
-  <si>
-    <t>iacData</t>
-  </si>
-  <si>
-    <t>id和count数据</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -165,7 +132,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ [$￥-804]* #,##0.000_ ;_ [$￥-804]* \-#,##0.000_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,12 +147,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -336,7 +310,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,7 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.398419141209143"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,55 +661,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,73 +721,76 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -820,16 +800,14 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1150,22 +1128,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="18.4553571428571" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1173,283 +1152,168 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>导出/server</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>10000:10|2000:20</t>
+  </si>
+  <si>
+    <t>体力道具ID</t>
+  </si>
+  <si>
+    <t>EnergyItem</t>
+  </si>
+  <si>
+    <t>TestType.Test4</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1316,6 +1325,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config/Global【全局配置表】.xlsx
+++ b/config/Global【全局配置表】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19720"/>
+    <workbookView windowWidth="26060" windowHeight="19720"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>导出/server</t>
   </si>
@@ -92,12 +92,33 @@
   </si>
   <si>
     <t>最大生命值</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>SpeedDownTime</t>
+  </si>
+  <si>
+    <t>吃豆人赤豆减速时间</t>
+  </si>
+  <si>
+    <t>StdSpeed</t>
+  </si>
+  <si>
+    <t>标准移动速度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1096,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
@@ -1271,6 +1292,46 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
